--- a/StructureDefinition-ischemic-stroke-etiology-ext.xlsx
+++ b/StructureDefinition-ischemic-stroke-etiology-ext.xlsx
@@ -84,7 +84,17 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Records the determined ischemic stroke etiology as a CodeableConcept bound (required) to StrokeEtiologyVS (e.g., cardioembolic, large artery atherosclerosis, lacunar, cryptogenic). Apply to definitive ischemic stroke Conditions after diagnostic workup; avoid use for hemorrhagic strokes or provisional hypotheses not yet established.</t>
+    <t>Extension capturing the **determined ischemic stroke etiology classification**.
+**Primary use-case**
+- Attach to a definitive ischemic stroke Condition (`StrokeDiagnosisConditionProfile`) to support:
+  - etiologic subgroup analytics (cardioembolic vs lacunar vs cryptogenic, etc.),
+  - pathway decision support (e.g., prolonged rhythm monitoring for cryptogenic stroke),
+**When to use**
+- Use after etiologic workup when a classification is assigned.
+- Do not use for hemorrhagic stroke diagnoses.
+- If the etiology remains unknown/undetermined, either omit the extension or use the “Undetermined” code included in StrokeEtiologyVS.
+**FHIR placement**
+- `Condition.extension[ischemicEtiology].valueCodeableConcept` (required binding to StrokeEtiologyVS).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-ischemic-stroke-etiology-ext.xlsx
+++ b/StructureDefinition-ischemic-stroke-etiology-ext.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
